--- a/data_year/zb/科技/研究与试验发展人员情况/研究与试验发展全时人员.xlsx
+++ b/data_year/zb/科技/研究与试验发展人员情况/研究与试验发展全时人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,59 +513,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3682</v>
-      </c>
-      <c r="C2" t="n">
-        <v>67195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8982</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1167617</v>
-      </c>
-      <c r="F2" t="n">
-        <v>70235</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47172</v>
-      </c>
-      <c r="H2" t="n">
-        <v>218237</v>
-      </c>
-      <c r="I2" t="n">
-        <v>923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1723</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8810</v>
-      </c>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1954957</v>
-      </c>
-      <c r="M2" t="n">
-        <v>287829</v>
-      </c>
-      <c r="N2" t="n">
-        <v>17773</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54366</v>
-      </c>
-      <c r="P2" t="n">
-        <v>413</v>
-      </c>
+        <v>2197609</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -579,37 +551,13 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2197609</v>
+        <v>2522764</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>2522764</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
